--- a/Archivos/Argentino Optimist - Detalle Inscriptos.xlsx
+++ b/Archivos/Argentino Optimist - Detalle Inscriptos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloos\Desktop\ARG_OPT_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloos\Desktop\ARG_OPT_2022\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E007D0E0-AF5C-43DE-8534-D4987A13AEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDC21AC-BABF-4C6D-9D95-09FAD99A14A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="431">
   <si>
     <t>Club</t>
   </si>
@@ -1334,7 +1334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,6 +1359,14 @@
       <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1396,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1417,6 +1425,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1755,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1474"/>
+  <dimension ref="A1:J1474"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1769,9 +1778,10 @@
     <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>429</v>
       </c>
@@ -1791,7 +1801,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1810,8 +1820,18 @@
       <c r="F2" s="3">
         <v>39536</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>SUM(I2:I22)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1830,8 +1850,14 @@
       <c r="F3" s="3">
         <v>40017</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1850,8 +1876,14 @@
       <c r="F4" s="3">
         <v>40182</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1870,8 +1902,14 @@
       <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1890,8 +1928,14 @@
       <c r="F6" s="3">
         <v>40986</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +1954,14 @@
       <c r="F7" s="3">
         <v>40210</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1930,8 +1980,14 @@
       <c r="F8" s="3">
         <v>40917</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,8 +2006,14 @@
       <c r="F9" s="3">
         <v>41495</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -1970,8 +2032,14 @@
       <c r="F10" s="3">
         <v>41070</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1990,8 +2058,14 @@
       <c r="F11" s="3">
         <v>40773</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2010,8 +2084,14 @@
       <c r="F12" s="3">
         <v>40169</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2030,8 +2110,14 @@
       <c r="F13" s="3">
         <v>39971</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2050,8 +2136,14 @@
       <c r="F14" s="3">
         <v>40260</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -2070,8 +2162,14 @@
       <c r="F15" s="3">
         <v>40456</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2090,8 +2188,14 @@
       <c r="F16" s="3">
         <v>41649</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -2110,8 +2214,14 @@
       <c r="F17" s="3">
         <v>40005</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -2130,8 +2240,14 @@
       <c r="F18" s="3">
         <v>40588</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2150,8 +2266,14 @@
       <c r="F19" s="3">
         <v>40108</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -2170,8 +2292,14 @@
       <c r="F20" s="3">
         <v>40344</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,8 +2318,14 @@
       <c r="F21" s="3">
         <v>41604</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -2210,8 +2344,14 @@
       <c r="F22" s="3">
         <v>40049</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2230,8 +2370,11 @@
       <c r="F23" s="3">
         <v>40564</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2250,8 +2393,11 @@
       <c r="F24" s="3">
         <v>40486</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -2270,8 +2416,11 @@
       <c r="F25" s="3">
         <v>40649</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,8 +2439,11 @@
       <c r="F26" s="3">
         <v>40997</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -2310,8 +2462,11 @@
       <c r="F27" s="3">
         <v>41435</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2330,8 +2485,11 @@
       <c r="F28" s="3">
         <v>40557</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2350,8 +2508,11 @@
       <c r="F29" s="3">
         <v>39169</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -2370,8 +2531,11 @@
       <c r="F30" s="3">
         <v>40252</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -2390,8 +2554,11 @@
       <c r="F31" s="3">
         <v>40316</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,8 +2577,11 @@
       <c r="F32" s="3">
         <v>41082</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -2430,8 +2600,11 @@
       <c r="F33" s="3">
         <v>40833</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2450,8 +2623,11 @@
       <c r="F34" s="3">
         <v>41459</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -2470,8 +2646,11 @@
       <c r="F35" s="3">
         <v>40688</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -2490,8 +2669,11 @@
       <c r="F36" s="3">
         <v>40741</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2510,8 +2692,11 @@
       <c r="F37" s="3">
         <v>40043</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,8 +2715,11 @@
       <c r="F38" s="3">
         <v>40904</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -2550,8 +2738,11 @@
       <c r="F39" s="3">
         <v>40871</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2571,7 +2762,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2591,7 +2782,7 @@
         <v>40431</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2611,7 +2802,7 @@
         <v>40756</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -2631,7 +2822,7 @@
         <v>40032</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -2651,7 +2842,7 @@
         <v>40834</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2671,7 +2862,7 @@
         <v>41185</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2691,7 +2882,7 @@
         <v>39985</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -2711,7 +2902,7 @@
         <v>41310</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -18098,9 +18289,8 @@
       <c r="F1474" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1475">
-    <sortCondition ref="A2:A1475"/>
-    <sortCondition ref="C2:C1475"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I39">
+    <sortCondition ref="I2:I39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18108,13 +18298,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="2" max="2" width="60.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="140" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
